--- a/rrd/AppData/CaseAllocation.xlsx
+++ b/rrd/AppData/CaseAllocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B96A4-5D70-499F-BD8C-E212C89522DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219C6A2-9761-42ED-8381-7141EC58588C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseAllocation_config1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="207">
   <si>
     <t xml:space="preserve"> Status</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Ratingtype</t>
   </si>
   <si>
-    <t>RRDType</t>
-  </si>
-  <si>
-    <t>RRDCaseReason</t>
-  </si>
-  <si>
     <t>WebEmailtext</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Mechanical</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>anshu@test.com</t>
   </si>
   <si>
@@ -150,27 +141,15 @@
     <t>Cold</t>
   </si>
   <si>
-    <t>Electronic</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
     <t>ToBeAssigned</t>
   </si>
   <si>
-    <t>Installation</t>
-  </si>
-  <si>
     <t>InstallationTest</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
     <t>Soumya</t>
   </si>
   <si>
@@ -195,9 +174,6 @@
     <t>TCS</t>
   </si>
   <si>
-    <t>Structural</t>
-  </si>
-  <si>
     <t>Testuserone@test.com</t>
   </si>
   <si>
@@ -219,9 +195,6 @@
     <t>Warm</t>
   </si>
   <si>
-    <t>Electrical</t>
-  </si>
-  <si>
     <t>Testusertwo@test.com</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>QATEAM_CTEST</t>
   </si>
   <si>
@@ -579,15 +549,6 @@
     <t>Changeowner</t>
   </si>
   <si>
-    <t>CaseNo</t>
-  </si>
-  <si>
-    <t>00001083</t>
-  </si>
-  <si>
-    <t>00001084</t>
-  </si>
-  <si>
     <t>Vyas</t>
   </si>
   <si>
@@ -706,18 +667,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>00001128</t>
-  </si>
-  <si>
-    <t>00001129</t>
-  </si>
-  <si>
-    <t>00001130</t>
-  </si>
-  <si>
-    <t>00001131</t>
   </si>
 </sst>
 </file>
@@ -818,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,6 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1122,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,18 +1088,16 @@
     <col min="6" max="6" width="21.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1190,128 +1138,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{B7C0E961-408D-4AE6-9339-9ABE12256FC7}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{C248C050-573F-4414-AFE8-0E8EB63D1AC0}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{B7C0E961-408D-4AE6-9339-9ABE12256FC7}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{C248C050-573F-4414-AFE8-0E8EB63D1AC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1320,25 +1250,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB99A02-4976-47E0-8443-2C26A97338B7}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1379,128 +1310,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>52</v>
+        <v>119</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{072B45C6-C90B-407D-ABDF-EAEE9BBA45E4}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{23B419AB-9A4F-4A58-A782-06DD971C2140}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{072B45C6-C90B-407D-ABDF-EAEE9BBA45E4}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{23B419AB-9A4F-4A58-A782-06DD971C2140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1508,27 +1421,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B7233-FE6D-4D2F-98FE-97B1DE591018}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1568,129 +1479,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{C053FE15-D140-4F26-99E8-040FB090D80A}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{B924F541-6401-47EA-8A0E-16DE65E4F9E5}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C053FE15-D140-4F26-99E8-040FB090D80A}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{B924F541-6401-47EA-8A0E-16DE65E4F9E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1698,31 +1591,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FD8E0-3822-4DAD-BA7D-12FF08028B70}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12.33203125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1762,156 +1652,129 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>179</v>
+      <c r="P3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{CC411B17-2F9D-491A-9C15-B956D2E5C0D3}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{3882F6FC-AB2A-40F5-B7F9-D1549979D87C}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{CC411B17-2F9D-491A-9C15-B956D2E5C0D3}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{3882F6FC-AB2A-40F5-B7F9-D1549979D87C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1920,30 +1783,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A5526F-A1B9-4EFD-A89D-308BBD225E93}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="16.6640625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1983,81 +1844,69 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{1E0AF830-8F69-409F-AFEE-20B434F5D1B9}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{1E0AF830-8F69-409F-AFEE-20B434F5D1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2065,27 +1914,26 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD13C4BE-BB71-4A93-9094-53209F458480}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2125,129 +1973,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{0CD7D4FD-80DA-410D-91A6-D1A1BD4B9304}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{2C0CBED5-3198-4E28-8EC6-F31D29DEE023}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{0CD7D4FD-80DA-410D-91A6-D1A1BD4B9304}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{2C0CBED5-3198-4E28-8EC6-F31D29DEE023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,27 +2085,25 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4D6755-7733-4A3B-963B-0C0EED66B088}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2315,129 +2143,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
+        <v>135</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{F24064DE-0137-49B1-87F6-5378735EBF41}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{88FEB18B-AD00-4E19-A7BE-21802B5CDEC5}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F24064DE-0137-49B1-87F6-5378735EBF41}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{88FEB18B-AD00-4E19-A7BE-21802B5CDEC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2445,27 +2255,26 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FD5B99-E587-433F-AE33-FA571F01140A}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2505,129 +2314,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
+        <v>146</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{A162CA5F-9FAE-43E7-8E9B-804F8C16CBAC}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{6244AF77-C9F4-4D65-AC12-BAEABAA2C425}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{A162CA5F-9FAE-43E7-8E9B-804F8C16CBAC}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{6244AF77-C9F4-4D65-AC12-BAEABAA2C425}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2635,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02974618-3A4F-4474-A674-1B012640D304}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,18 +2437,16 @@
     <col min="6" max="6" width="22" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="25" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2697,129 +2486,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
+        <v>152</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{FBA5CD91-BDE4-40B7-AD40-14F84AD52AA1}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{1262DF68-02DC-4A87-BA09-354A8B04173C}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{FBA5CD91-BDE4-40B7-AD40-14F84AD52AA1}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{1262DF68-02DC-4A87-BA09-354A8B04173C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2827,28 +2598,26 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84313C8F-12D4-4FF2-8432-B3FF6AB62098}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="11.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2889,290 +2658,254 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{6E2FB63F-F6B0-4BCD-A0C0-91CCC2BECF2F}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{55F9196D-0BA2-4A46-B8CA-9BD00CB5FFB3}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{4E91D505-B133-43B7-85AA-E43B127DD8A7}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{ECEB2124-012C-4096-B77D-193CEAEAEEDB}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{A26D10B6-B46F-4E13-A04C-A07987E08B7B}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{6E2FB63F-F6B0-4BCD-A0C0-91CCC2BECF2F}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{55F9196D-0BA2-4A46-B8CA-9BD00CB5FFB3}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{4E91D505-B133-43B7-85AA-E43B127DD8A7}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{ECEB2124-012C-4096-B77D-193CEAEAEEDB}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{A26D10B6-B46F-4E13-A04C-A07987E08B7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3180,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E7EAA-005B-483E-8A34-5CE68991937D}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3192,18 +2925,16 @@
     <col min="6" max="6" width="16.5546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3243,183 +2974,159 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
         <v>110</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>97</v>
+      <c r="O4" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{BAB031FE-04A4-4B35-8F71-7B7CD88B4FC8}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{D9FCC549-D82E-47D8-8505-C461680140D6}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{EE913C53-ABA2-49E6-8BC9-9EB056C5C16E}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{BAB031FE-04A4-4B35-8F71-7B7CD88B4FC8}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D9FCC549-D82E-47D8-8505-C461680140D6}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{EE913C53-ABA2-49E6-8BC9-9EB056C5C16E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -3428,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA34667E-FF55-4147-946D-470443841D6F}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3443,18 +3150,16 @@
     <col min="6" max="6" width="20.21875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3495,128 +3200,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{97ECED42-F0A4-40D7-B102-AF5F0CD04063}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{6300EE9D-1F16-4283-8963-F092F6C75CA4}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{97ECED42-F0A4-40D7-B102-AF5F0CD04063}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{6300EE9D-1F16-4283-8963-F092F6C75CA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -3625,29 +3312,27 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FECDA-E4E8-4EE5-8AD2-F1FF87F62289}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3687,151 +3372,130 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>52</v>
+      <c r="P3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{5E45E025-B564-4EFC-ADDE-D2D6B1DA5E0B}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{1ACDABCB-3C05-4953-ADCC-B892AB33FC94}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{5E45E025-B564-4EFC-ADDE-D2D6B1DA5E0B}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{1ACDABCB-3C05-4953-ADCC-B892AB33FC94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3841,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA348B7-154F-442C-AD50-8BFD651AA65A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3866,1628 +3530,1628 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J31" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J33" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J35" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J37" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J39" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J41" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J43" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J45" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J47" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J49" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H51" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J51" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,7 +5168,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5529,171 +5193,157 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>222</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5703,7 +5353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBE278-263E-4305-A7E4-2CB2D2D0E803}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -5718,18 +5368,16 @@
     <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5770,128 +5418,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{C44DB3B9-570F-4BB7-A68B-6F47D797D992}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{387B33DD-8006-4EAC-B2EE-8DA7E24D6F67}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C44DB3B9-570F-4BB7-A68B-6F47D797D992}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{387B33DD-8006-4EAC-B2EE-8DA7E24D6F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5899,10 +5529,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4084B3D2-2889-45F5-A577-56089C45E3DA}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5911,18 +5541,16 @@
     <col min="2" max="2" width="18.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5963,128 +5591,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{753A84B1-194D-4947-BC32-345CBC17B895}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{B27D04A5-7455-4F92-A26B-E258C5DB458B}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{753A84B1-194D-4947-BC32-345CBC17B895}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{B27D04A5-7455-4F92-A26B-E258C5DB458B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -6093,10 +5703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD2C3-A541-4D75-98B7-20B8D1A343BE}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6109,18 +5719,16 @@
     <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6161,124 +5769,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{F6673BA3-E596-4A14-840E-D4C299CBB08F}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{5F4DB623-747B-4DBE-B5CC-E93C99453D02}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F6673BA3-E596-4A14-840E-D4C299CBB08F}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{5F4DB623-747B-4DBE-B5CC-E93C99453D02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6286,10 +5880,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65995A-9C00-4D5B-8374-B6551AD156AA}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6300,22 +5894,20 @@
     <col min="6" max="6" width="20.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="31" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6355,148 +5947,130 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>52</v>
+      <c r="P3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{D3ED309D-1B84-4FEE-A31E-AE4E73C5D7C9}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{D696AF11-4AC0-4698-BC45-DB1253CE9D8F}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D3ED309D-1B84-4FEE-A31E-AE4E73C5D7C9}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D696AF11-4AC0-4698-BC45-DB1253CE9D8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -6505,10 +6079,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C41BA3D-7D86-4A39-B829-7D3A5258394A}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6518,18 +6092,16 @@
     <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6569,129 +6141,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{84970ABA-6DE6-4021-A1B2-B9163282E384}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{F8EE3FF7-1275-4EF5-B35E-7654B134E9DB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{84970ABA-6DE6-4021-A1B2-B9163282E384}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{F8EE3FF7-1275-4EF5-B35E-7654B134E9DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6699,25 +6253,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12BFABF-E25E-4543-AA40-2BD7315DAB44}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6758,128 +6313,110 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>186</v>
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{73EDDB23-76FA-4C19-8D25-F940381D68D8}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{D459B4EF-7349-4E82-B7E6-6C1D926993EB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{73EDDB23-76FA-4C19-8D25-F940381D68D8}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D459B4EF-7349-4E82-B7E6-6C1D926993EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6887,10 +6424,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D882FEC-6735-4E18-AB73-F1856F2A93B8}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6898,18 +6435,17 @@
     <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6949,125 +6485,111 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{63A98249-CE7F-4509-9629-0BA027B148CC}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{8C431BFE-F05A-4CB1-B6B1-EDF04A07F524}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{63A98249-CE7F-4509-9629-0BA027B148CC}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{8C431BFE-F05A-4CB1-B6B1-EDF04A07F524}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rrd/AppData/CaseAllocation.xlsx
+++ b/rrd/AppData/CaseAllocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219C6A2-9761-42ED-8381-7141EC58588C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB67FE-D558-4DC8-AA08-664D36A91C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,12 +729,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF080707"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -767,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -782,9 +776,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1353,7 +1344,7 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N2" t="s">
@@ -1391,19 +1382,19 @@
       <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -1523,13 +1514,13 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1570,13 +1561,13 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1593,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FD8E0-3822-4DAD-BA7D-12FF08028B70}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,8 +1702,8 @@
       <c r="O2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>52</v>
+      <c r="P2" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>50</v>
@@ -1764,11 +1755,11 @@
       <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>163</v>
+      <c r="P3" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2064,13 +2055,13 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2428,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02974618-3A4F-4474-A674-1B012640D304}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,7 +2522,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
         <v>152</v>
@@ -2577,8 +2568,8 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>163</v>
+      <c r="M3" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>152</v>
@@ -2600,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84313C8F-12D4-4FF2-8432-B3FF6AB62098}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2915,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E7EAA-005B-483E-8A34-5CE68991937D}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3314,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FECDA-E4E8-4EE5-8AD2-F1FF87F62289}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,7 +3375,7 @@
       <c r="Q1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="14"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3443,7 +3434,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
@@ -3555,16 +3546,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -3573,7 +3564,7 @@
       <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -3587,25 +3578,25 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -3619,25 +3610,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -3651,25 +3642,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -3683,25 +3674,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -3715,25 +3706,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -3747,25 +3738,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -3779,25 +3770,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -3811,25 +3802,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -3843,25 +3834,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -3875,25 +3866,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -3907,25 +3898,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -3939,25 +3930,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -3971,25 +3962,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -4003,25 +3994,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -4035,25 +4026,25 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="11" t="s">
@@ -4067,25 +4058,25 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H18" s="11" t="s">
@@ -4099,25 +4090,25 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -4131,25 +4122,25 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -4163,25 +4154,25 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -4195,25 +4186,25 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -4227,25 +4218,25 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="11" t="s">
@@ -4259,25 +4250,25 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="11" t="s">
@@ -4291,25 +4282,25 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -4323,25 +4314,25 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -4355,25 +4346,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H27" s="11" t="s">
@@ -4387,25 +4378,25 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -4419,25 +4410,25 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -4451,25 +4442,25 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -4483,25 +4474,25 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -4515,25 +4506,25 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H32" s="11" t="s">
@@ -4547,25 +4538,25 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -4579,25 +4570,25 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -4611,25 +4602,25 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -4643,25 +4634,25 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H36" s="11" t="s">
@@ -4675,25 +4666,25 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -4707,25 +4698,25 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -4739,25 +4730,25 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H39" s="11" t="s">
@@ -4771,25 +4762,25 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -4803,25 +4794,25 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -4835,25 +4826,25 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -4867,25 +4858,25 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -4899,25 +4890,25 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H44" s="11" t="s">
@@ -4931,25 +4922,25 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="B45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H45" s="11" t="s">
@@ -4963,25 +4954,25 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -4995,25 +4986,25 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="16" t="s">
+      <c r="B47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -5027,25 +5018,25 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="B48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -5059,25 +5050,25 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="D49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -5091,25 +5082,25 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H50" s="11" t="s">
@@ -5123,25 +5114,25 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H51" s="11" t="s">
@@ -5158,7 +5149,7 @@
       <c r="I52" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5216,28 +5207,28 @@
       <c r="J1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -5251,25 +5242,25 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -5283,25 +5274,25 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -5315,25 +5306,25 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -5651,7 +5642,7 @@
       <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
@@ -5672,10 +5663,10 @@
       <c r="I3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
@@ -5684,7 +5675,7 @@
       <c r="M3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>62</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -5959,7 +5950,7 @@
       <c r="Q1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="13"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6394,19 +6385,19 @@
       <c r="I3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="O3" s="11" t="s">

--- a/rrd/AppData/CaseAllocation.xlsx
+++ b/rrd/AppData/CaseAllocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB67FE-D558-4DC8-AA08-664D36A91C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD52CE-42F7-4C74-86F8-FCFCE2ECBE97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseAllocation_config1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,8 @@
     <sheet name="CaseAllocation_config16" sheetId="16" r:id="rId19"/>
     <sheet name="CaseAllocation_config17" sheetId="17" r:id="rId20"/>
     <sheet name="DemoCase" sheetId="21" r:id="rId21"/>
-    <sheet name="DemoCase1" sheetId="22" r:id="rId22"/>
+    <sheet name="AllocatedistributeDemo" sheetId="23" r:id="rId22"/>
+    <sheet name="DemoCase1" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="207">
   <si>
     <t xml:space="preserve"> Status</t>
   </si>
@@ -3305,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FECDA-E4E8-4EE5-8AD2-F1FF87F62289}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -3496,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA348B7-154F-442C-AD50-8BFD651AA65A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5155,11 +5156,709 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B58F61-C780-4DDE-9655-789E8E3DBBE1}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799CEE2-FE85-4732-8433-934FE0D494AA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
